--- a/src/dvrk_ctr_teleop/src/dvrk_ctr_teleop/RPR_kinematics/EE_Linkage_Mapping.xlsx
+++ b/src/dvrk_ctr_teleop/src/dvrk_ctr_teleop/RPR_kinematics/EE_Linkage_Mapping.xlsx
@@ -226,7 +226,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -616,6 +616,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -970,106 +971,106 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.436332312998582</c:v>
+                  <c:v>0.290888208665722</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.872664625997165</c:v>
+                  <c:v>0.581776417331443</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.30899693899575</c:v>
+                  <c:v>0.872664625997163</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>1.16355283466289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.45444104332861</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>1.74532925199433</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.18166156499291</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
+                  <c:v>2.03621746066005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.32710566932577</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>2.61799387799149</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.05432619099008</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.49065850398866</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.92699081698724</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.36332312998582</c:v>
+                  <c:v>2.90888208665722</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.79965544298441</c:v>
+                  <c:v>3.19977029532294</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.23598775598299</c:v>
+                  <c:v>3.49065850398867</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.67232006898157</c:v>
+                  <c:v>3.78154671265437</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.10865238198015</c:v>
+                  <c:v>4.0724349213201</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.54498469497874</c:v>
+                  <c:v>4.36332312998583</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.98131700797732</c:v>
+                  <c:v>4.65421133865153</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.4176493209759</c:v>
+                  <c:v>4.94509954731727</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.85398163397448</c:v>
+                  <c:v>5.235987755983</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.29031394697307</c:v>
+                  <c:v>5.5268759646487</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.72664625997165</c:v>
+                  <c:v>5.81776417331443</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.16297857297023</c:v>
+                  <c:v>6.10865238198017</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.59931088596881</c:v>
+                  <c:v>6.39954059064587</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10</c:v>
+                  <c:v>6.6904287993116</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10</c:v>
+                  <c:v>6.98131700797733</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10</c:v>
+                  <c:v>7.27220521664303</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10</c:v>
+                  <c:v>7.56309342530877</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10</c:v>
+                  <c:v>7.85398163397447</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10</c:v>
+                  <c:v>8.1448698426402</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10</c:v>
+                  <c:v>8.43575805130593</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10</c:v>
+                  <c:v>8.72664625997163</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10</c:v>
+                  <c:v>9.01753446863737</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10</c:v>
+                  <c:v>9.3084226773031</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10</c:v>
+                  <c:v>9.5993108859688</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10</c:v>
+                  <c:v>9.89019909463453</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>10</c:v>
@@ -1082,11 +1083,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="2340864"/>
-        <c:axId val="64585002"/>
+        <c:axId val="76415140"/>
+        <c:axId val="76174173"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2340864"/>
+        <c:axId val="76415140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,12 +1129,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64585002"/>
+        <c:crossAx val="76174173"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64585002"/>
+        <c:axId val="76174173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1176,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2340864"/>
+        <c:crossAx val="76415140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1214,9 +1215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>431640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1224,8 +1225,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9117000" y="3422880"/>
-        <a:ext cx="5616360" cy="2742480"/>
+        <a:off x="9121320" y="3422880"/>
+        <a:ext cx="5619960" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1245,11 +1246,11 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
@@ -2321,7 +2322,7 @@
       </c>
       <c r="C39" s="0" t="n">
         <f aca="false">IF(B39&gt;=$F$41,$F$42,IF(B39*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B39*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>0.436332312998582</v>
+        <v>0.290888208665722</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2335,7 @@
       </c>
       <c r="C40" s="0" t="n">
         <f aca="false">IF(B40&gt;=$F$41,$F$42,IF(B40*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B40*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>0.872664625997165</v>
+        <v>0.581776417331443</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>11</v>
@@ -2350,7 +2351,7 @@
       </c>
       <c r="C41" s="0" t="n">
         <f aca="false">IF(B41&gt;=$F$41,$F$42,IF(B41*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B41*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>1.30899693899575</v>
+        <v>0.872664625997163</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>12</v>
@@ -2369,7 +2370,7 @@
       </c>
       <c r="C42" s="0" t="n">
         <f aca="false">IF(B42&gt;=$F$41,$F$42,IF(B42*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B42*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>1.74532925199433</v>
+        <v>1.16355283466289</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>7</v>
@@ -2388,13 +2389,13 @@
       </c>
       <c r="C43" s="0" t="n">
         <f aca="false">IF(B43&gt;=$F$41,$F$42,IF(B43*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B43*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>2.18166156499291</v>
+        <v>1.45444104332861</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2408,7 @@
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">IF(B44&gt;=$F$41,$F$42,IF(B44*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B44*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>2.61799387799149</v>
+        <v>1.74532925199433</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>6</v>
@@ -2426,7 +2427,7 @@
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">IF(B45&gt;=$F$41,$F$42,IF(B45*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B45*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>3.05432619099008</v>
+        <v>2.03621746066005</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2440,7 @@
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">IF(B46&gt;=$F$41,$F$42,IF(B46*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B46*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>3.49065850398866</v>
+        <v>2.32710566932577</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2453,7 @@
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">IF(B47&gt;=$F$41,$F$42,IF(B47*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B47*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>3.92699081698724</v>
+        <v>2.61799387799149</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,7 +2466,7 @@
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">IF(B48&gt;=$F$41,$F$42,IF(B48*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B48*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>4.36332312998582</v>
+        <v>2.90888208665722</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,7 +2479,7 @@
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">IF(B49&gt;=$F$41,$F$42,IF(B49*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B49*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>4.79965544298441</v>
+        <v>3.19977029532294</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,7 +2492,7 @@
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">IF(B50&gt;=$F$41,$F$42,IF(B50*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B50*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>5.23598775598299</v>
+        <v>3.49065850398867</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,7 +2505,7 @@
       </c>
       <c r="C51" s="0" t="n">
         <f aca="false">IF(B51&gt;=$F$41,$F$42,IF(B51*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B51*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>5.67232006898157</v>
+        <v>3.78154671265437</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,7 +2518,7 @@
       </c>
       <c r="C52" s="0" t="n">
         <f aca="false">IF(B52&gt;=$F$41,$F$42,IF(B52*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B52*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>6.10865238198015</v>
+        <v>4.0724349213201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C53" s="0" t="n">
         <f aca="false">IF(B53&gt;=$F$41,$F$42,IF(B53*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B53*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>6.54498469497874</v>
+        <v>4.36332312998583</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,7 +2544,7 @@
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">IF(B54&gt;=$F$41,$F$42,IF(B54*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B54*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>6.98131700797732</v>
+        <v>4.65421133865153</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2557,7 @@
       </c>
       <c r="C55" s="0" t="n">
         <f aca="false">IF(B55&gt;=$F$41,$F$42,IF(B55*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B55*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>7.4176493209759</v>
+        <v>4.94509954731727</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2570,7 @@
       </c>
       <c r="C56" s="0" t="n">
         <f aca="false">IF(B56&gt;=$F$41,$F$42,IF(B56*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B56*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>7.85398163397448</v>
+        <v>5.235987755983</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2583,7 @@
       </c>
       <c r="C57" s="0" t="n">
         <f aca="false">IF(B57&gt;=$F$41,$F$42,IF(B57*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B57*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>8.29031394697307</v>
+        <v>5.5268759646487</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2596,7 @@
       </c>
       <c r="C58" s="0" t="n">
         <f aca="false">IF(B58&gt;=$F$41,$F$42,IF(B58*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B58*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>8.72664625997165</v>
+        <v>5.81776417331443</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,7 +2609,7 @@
       </c>
       <c r="C59" s="0" t="n">
         <f aca="false">IF(B59&gt;=$F$41,$F$42,IF(B59*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B59*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>9.16297857297023</v>
+        <v>6.10865238198017</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2622,7 @@
       </c>
       <c r="C60" s="0" t="n">
         <f aca="false">IF(B60&gt;=$F$41,$F$42,IF(B60*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B60*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>9.59931088596881</v>
+        <v>6.39954059064587</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,7 +2635,7 @@
       </c>
       <c r="C61" s="0" t="n">
         <f aca="false">IF(B61&gt;=$F$41,$F$42,IF(B61*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B61*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>6.6904287993116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,7 +2648,7 @@
       </c>
       <c r="C62" s="0" t="n">
         <f aca="false">IF(B62&gt;=$F$41,$F$42,IF(B62*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B62*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>6.98131700797733</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2661,7 @@
       </c>
       <c r="C63" s="0" t="n">
         <f aca="false">IF(B63&gt;=$F$41,$F$42,IF(B63*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B63*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>7.27220521664303</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2674,7 @@
       </c>
       <c r="C64" s="0" t="n">
         <f aca="false">IF(B64&gt;=$F$41,$F$42,IF(B64*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B64*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>7.56309342530877</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,7 +2687,7 @@
       </c>
       <c r="C65" s="0" t="n">
         <f aca="false">IF(B65&gt;=$F$41,$F$42,IF(B65*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B65*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>7.85398163397447</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,7 +2700,7 @@
       </c>
       <c r="C66" s="0" t="n">
         <f aca="false">IF(B66&gt;=$F$41,$F$42,IF(B66*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B66*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>8.1448698426402</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2713,7 @@
       </c>
       <c r="C67" s="0" t="n">
         <f aca="false">IF(B67&gt;=$F$41,$F$42,IF(B67*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B67*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>8.43575805130593</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2726,7 @@
       </c>
       <c r="C68" s="0" t="n">
         <f aca="false">IF(B68&gt;=$F$41,$F$42,IF(B68*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B68*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>8.72664625997163</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,7 +2739,7 @@
       </c>
       <c r="C69" s="0" t="n">
         <f aca="false">IF(B69&gt;=$F$41,$F$42,IF(B69*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B69*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>9.01753446863737</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,7 +2752,7 @@
       </c>
       <c r="C70" s="0" t="n">
         <f aca="false">IF(B70&gt;=$F$41,$F$42,IF(B70*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B70*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>9.3084226773031</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,7 +2765,7 @@
       </c>
       <c r="C71" s="0" t="n">
         <f aca="false">IF(B71&gt;=$F$41,$F$42,IF(B71*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B71*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>9.5993108859688</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2778,7 @@
       </c>
       <c r="C72" s="0" t="n">
         <f aca="false">IF(B72&gt;=$F$41,$F$42,IF(B72*($F$44-$F$42)/($F$43-$F$41)+$F$42&gt;$F$44,$F$44,B72*($F$44-$F$42)/($F$43-$F$41)+$F$42))</f>
-        <v>10</v>
+        <v>9.89019909463453</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
